--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Facultad\Testing de Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alu502\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61649571-5F05-4CA2-9803-93A87A14CE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="TC01 - Template" sheetId="1" r:id="rId1"/>
-    <sheet name="TC02 - Template (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="TC03 - Template (3)" sheetId="5" r:id="rId3"/>
-    <sheet name="TC04 - Template (4)" sheetId="6" r:id="rId4"/>
-    <sheet name="TC05 - Template (5)" sheetId="7" r:id="rId5"/>
-    <sheet name="TC06 - Template (6)" sheetId="8" r:id="rId6"/>
-    <sheet name="TC07 - Template (7)" sheetId="9" r:id="rId7"/>
-    <sheet name="TC08 - Template (8)" sheetId="11" r:id="rId8"/>
-    <sheet name="TC09 - Template (9)" sheetId="12" r:id="rId9"/>
-    <sheet name="TC10 - Template (10)" sheetId="13" r:id="rId10"/>
-    <sheet name="TC11 - Template (11)" sheetId="14" r:id="rId11"/>
-    <sheet name="TC12 - Template (12)" sheetId="15" r:id="rId12"/>
-    <sheet name="TC13 - Template (13)" sheetId="16" r:id="rId13"/>
+    <sheet name="TC01" sheetId="1" r:id="rId1"/>
+    <sheet name="TC02" sheetId="4" r:id="rId2"/>
+    <sheet name="TC03" sheetId="5" r:id="rId3"/>
+    <sheet name="TC04" sheetId="6" r:id="rId4"/>
+    <sheet name="TC05 " sheetId="7" r:id="rId5"/>
+    <sheet name="TC06 " sheetId="8" r:id="rId6"/>
+    <sheet name="TC07" sheetId="9" r:id="rId7"/>
+    <sheet name="TC08" sheetId="11" r:id="rId8"/>
+    <sheet name="TC09" sheetId="12" r:id="rId9"/>
+    <sheet name="TC10" sheetId="13" r:id="rId10"/>
+    <sheet name="TC11" sheetId="14" r:id="rId11"/>
+    <sheet name="TC12" sheetId="15" r:id="rId12"/>
+    <sheet name="TC13" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="118">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -135,9 +134,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Verify customer can sign up after entering valid userid and password</t>
-  </si>
-  <si>
     <t>Executions</t>
   </si>
   <si>
@@ -340,12 +336,67 @@
   </si>
   <si>
     <t>Facundo Milher</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Customer can sign up after entering valid credential data</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid first name data</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid last name data</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid email data</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid password</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid birth</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid city</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid State</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid Postal code</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid Country</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid phone number</t>
+  </si>
+  <si>
+    <t>Customer cant sign up after entering invalid address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer cant sign up after entering invalid combination of City,State and postal code   
+   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -753,6 +804,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -761,7 +834,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -854,6 +927,54 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,61 +999,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Note 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,11 +1334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,10 +1368,10 @@
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1289,13 +1380,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1308,8 +1399,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1515,231 +1606,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
+      <c r="E31" s="39"/>
+      <c r="G31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="G31" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -1751,10 +1842,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -1766,10 +1857,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -1780,112 +1871,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="K40:L40"/>
@@ -1902,6 +1958,41 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1909,11 +2000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,15 +2030,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1956,13 +2047,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1975,8 +2066,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2000,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2144,7 +2235,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,232 +2272,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2418,10 +2509,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2433,10 +2524,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2447,119 +2538,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -2569,6 +2618,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2576,11 +2667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,15 +2697,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2623,13 +2714,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2642,8 +2733,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2667,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2821,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2848,232 +2939,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3085,10 +3176,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3100,10 +3191,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3114,119 +3205,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3236,6 +3285,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3243,11 +3334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,15 +3364,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3290,13 +3381,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3309,8 +3400,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3508,239 +3599,239 @@
         <v>14</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3752,10 +3843,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3767,10 +3858,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3781,119 +3872,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3903,6 +3952,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3910,11 +4001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,15 +4031,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3957,13 +4048,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3976,8 +4067,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4001,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4135,7 +4226,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,7 +4236,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4175,7 +4266,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4183,231 +4274,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -4419,10 +4510,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -4434,10 +4525,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -4448,119 +4539,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4570,6 +4619,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4577,11 +4668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,15 +4698,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4627,10 +4718,10 @@
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4643,8 +4734,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4668,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4728,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4850,231 +4941,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5086,10 +5177,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5101,10 +5192,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5115,119 +5206,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5237,6 +5286,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5244,11 +5335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,15 +5365,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5291,13 +5382,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5310,8 +5401,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5335,7 +5426,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5407,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5516,232 +5607,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5753,10 +5844,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5768,10 +5859,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5782,119 +5873,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5904,6 +5953,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5911,11 +6002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,15 +6032,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5958,13 +6049,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5977,8 +6068,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6002,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6086,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6183,232 +6274,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6420,10 +6511,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6435,10 +6526,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6449,119 +6540,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6571,6 +6620,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6578,11 +6669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6608,15 +6699,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6625,13 +6716,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6644,8 +6735,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6761,7 +6852,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,232 +6941,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7087,10 +7178,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7102,10 +7193,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7116,119 +7207,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -7238,6 +7287,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7245,11 +7336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7275,15 +7366,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7292,13 +7383,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -7311,8 +7402,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7336,7 +7427,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7436,7 +7527,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7517,232 +7608,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7754,10 +7845,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7769,10 +7860,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7783,119 +7874,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -7905,6 +7954,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7912,11 +8003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7942,15 +8033,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7959,13 +8050,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -7978,8 +8069,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8003,7 +8094,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8119,7 +8210,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,232 +8275,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8421,10 +8512,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8436,10 +8527,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8450,119 +8541,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8572,6 +8621,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8579,11 +8670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8609,15 +8700,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -8626,13 +8717,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8645,8 +8736,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8670,7 +8761,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8794,7 +8885,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8852,231 +8943,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9088,10 +9179,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9103,10 +9194,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9117,119 +9208,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -9239,6 +9288,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9246,11 +9337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9276,15 +9367,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -9293,13 +9384,13 @@
       <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="D2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -9312,8 +9403,8 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>2.1</v>
+      <c r="E3" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9337,7 +9428,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9471,7 +9562,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9518,232 +9609,232 @@
       <c r="A22" s="28"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="G25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="G26" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="35"/>
+      <c r="G28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="K28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="M28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="39"/>
       <c r="G29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="39"/>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="G31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9755,10 +9846,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9770,10 +9861,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9784,119 +9875,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -9906,6 +9955,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9913,26 +10004,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BBB18BE6CF2BFB42B2DD5EE6596F374E" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="37170910b36e01b9573b241ca3218b16">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="481c49dc-88bf-4d92-ac17-5a66c591758d" xmlns:ns3="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="318f38cef0f4167b6cc70dada7cca0d4" ns2:_="" ns3:_="">
     <xsd:import namespace="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
@@ -10109,10 +10180,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB860F05-AAC3-4E5E-831B-D7F7380B6C8D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
+    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10129,20 +10231,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB860F05-AAC3-4E5E-831B-D7F7380B6C8D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
-    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
@@ -4004,7 +4004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Facultad\Testing de Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A6C5F-200F-4620-95A9-8C0641F73882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDE7E2-C668-4487-A7F4-50E4D258F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="146">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Email: ricardosan@gmail.com</t>
   </si>
   <si>
-    <t>Password: fuera92@</t>
-  </si>
-  <si>
     <t>Date of birth: 20/11/1988</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
   </si>
   <si>
     <t>Email: leonardcooper@gmail.com</t>
-  </si>
-  <si>
-    <t>Password: leo1999#</t>
   </si>
   <si>
     <t>Date of birth: null</t>
@@ -475,13 +469,31 @@
   </si>
   <si>
     <t>invalid data on form (City, State and Postal doesn't match)</t>
+  </si>
+  <si>
+    <t>Password: jKy125!</t>
+  </si>
+  <si>
+    <t>Password: thiIsaTest92@</t>
+  </si>
+  <si>
+    <t>Password: boquitA22#</t>
+  </si>
+  <si>
+    <t>Password: pelotAA28!</t>
+  </si>
+  <si>
+    <t>Password: leO1999#</t>
+  </si>
+  <si>
+    <t>Password: ruSia29$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +599,14 @@
     <font>
       <u/>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -907,7 +927,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -987,41 +1007,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,6 +1046,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,30 +1109,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
@@ -1409,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,49 +1452,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -1544,6 +1565,7 @@
       <c r="E8" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -1588,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,33 +1700,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -1720,53 +1742,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -1796,14 +1818,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1831,14 +1853,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -1866,14 +1888,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -1899,10 +1921,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -1914,10 +1936,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -1929,10 +1951,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -1943,77 +1965,113 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="K40:L40"/>
@@ -2030,42 +2088,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2076,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,50 +2121,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>125</v>
+      <c r="D3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2258,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,7 +2332,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,33 +2370,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -2390,53 +2412,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -2466,14 +2488,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2501,14 +2523,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -2536,14 +2558,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -2569,10 +2591,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2584,10 +2606,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2599,10 +2621,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2613,77 +2635,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -2693,48 +2757,6 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2768,50 +2790,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>116</v>
+      <c r="D3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2989,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,33 +3039,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3059,53 +3081,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -3135,14 +3157,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -3170,14 +3192,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -3205,14 +3227,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -3238,10 +3260,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3253,10 +3275,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3268,10 +3290,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3282,77 +3304,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3363,48 +3427,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3438,50 +3460,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>125</v>
+      <c r="D3" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3679,7 +3701,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3687,33 +3709,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3729,53 +3751,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -3805,14 +3827,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -3840,14 +3862,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -3875,14 +3897,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -3908,10 +3930,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3923,10 +3945,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3938,10 +3960,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3952,77 +3974,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4033,48 +4097,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4108,50 +4130,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>125</v>
+      <c r="D3" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4309,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4319,7 +4341,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4349,7 +4371,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,33 +4379,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -4399,53 +4421,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -4475,14 +4497,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -4510,14 +4532,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -4545,14 +4567,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -4578,10 +4600,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -4593,10 +4615,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -4608,10 +4630,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -4622,77 +4644,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4703,48 +4767,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4756,7 +4778,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4778,49 +4800,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -4937,7 +4959,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5027,33 +5049,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5069,53 +5091,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -5145,14 +5167,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -5180,14 +5202,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -5215,14 +5237,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -5248,10 +5270,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5263,10 +5285,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5278,10 +5300,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5292,77 +5314,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5373,48 +5437,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5426,7 +5448,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5448,49 +5470,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -5585,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,7 +5627,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5687,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5695,33 +5717,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5737,53 +5759,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -5813,14 +5835,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -5848,14 +5870,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -5883,14 +5905,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -5916,10 +5938,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5931,10 +5953,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5946,10 +5968,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5960,77 +5982,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6041,48 +6105,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6093,8 +6115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,49 +6138,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -6265,7 +6287,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6297,7 +6319,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6305,7 +6327,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6315,7 +6337,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,7 +6347,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6363,33 +6385,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -6405,53 +6427,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -6481,14 +6503,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -6516,14 +6538,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -6551,14 +6573,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -6584,10 +6606,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6599,10 +6621,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6614,10 +6636,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6628,77 +6650,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6709,48 +6773,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6761,7 +6783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -6784,50 +6806,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="57"/>
-    </row>
-    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>88</v>
+      <c r="E3" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6897,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6911,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6923,7 +6945,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6935,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6943,7 +6965,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6951,7 +6973,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7033,33 +7055,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -7075,53 +7097,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -7151,14 +7173,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -7186,14 +7208,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -7221,14 +7243,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -7254,10 +7276,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7269,10 +7291,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7284,10 +7306,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7298,77 +7320,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -7379,48 +7443,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7431,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7454,50 +7476,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>88</v>
+      <c r="D3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7567,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7581,7 +7603,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7593,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7605,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7621,7 +7643,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7629,7 +7651,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7637,7 +7659,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7645,7 +7667,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7655,7 +7677,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7665,7 +7687,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7695,7 +7717,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7703,33 +7725,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -7745,53 +7767,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -7821,14 +7843,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -7856,14 +7878,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -7891,14 +7913,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -7924,10 +7946,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7939,10 +7961,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7954,10 +7976,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7968,77 +7990,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8049,48 +8113,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8101,7 +8123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
@@ -8127,46 +8149,46 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="57"/>
+      <c r="D3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="49"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -8305,7 +8327,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8371,33 +8393,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -8413,53 +8435,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -8489,14 +8511,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -8524,14 +8546,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -8559,14 +8581,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -8592,10 +8614,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8607,10 +8629,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8622,10 +8644,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8636,77 +8658,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8717,48 +8781,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8769,7 +8791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -8792,50 +8814,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>116</v>
+      <c r="D3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8983,7 +9005,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9041,33 +9063,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9083,53 +9105,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -9159,14 +9181,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -9194,14 +9216,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -9229,14 +9251,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -9262,10 +9284,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9277,10 +9299,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9292,10 +9314,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9306,77 +9328,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -9387,48 +9451,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9439,7 +9461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -9462,50 +9484,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>116</v>
+      <c r="D3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9663,7 +9685,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9711,33 +9733,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="G25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9753,53 +9775,53 @@
       <c r="E26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="51"/>
       <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
@@ -9829,14 +9851,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="42"/>
       <c r="G29" s="12" t="s">
         <v>54</v>
       </c>
@@ -9864,14 +9886,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="B30" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="42"/>
       <c r="G30" s="12" t="s">
         <v>54</v>
       </c>
@@ -9899,14 +9921,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="32"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="G31" s="12" t="s">
         <v>54</v>
       </c>
@@ -9932,10 +9954,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9947,10 +9969,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9962,10 +9984,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9976,77 +9998,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -10057,48 +10121,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10106,6 +10128,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BBB18BE6CF2BFB42B2DD5EE6596F374E" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3448be9ebe5d4dfd630dcc77c4ed8351">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="481c49dc-88bf-4d92-ac17-5a66c591758d" xmlns:ns3="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d70c4c6277d610cf875ec25ab292aa2f" ns2:_="" ns3:_="">
     <xsd:import namespace="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
@@ -10288,27 +10330,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
+    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D85B51-21B4-4136-A0E6-DD045BFBFF4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10325,23 +10366,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
-    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDE7E2-C668-4487-A7F4-50E4D258F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B428D80-FB7F-4632-8B07-B4E54B99626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="148">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>Access to Chrome Browser</t>
   </si>
   <si>
     <t>Title: Mr</t>
@@ -487,6 +484,15 @@
   </si>
   <si>
     <t>Password: ruSia29$</t>
+  </si>
+  <si>
+    <t>Access to Internet</t>
+  </si>
+  <si>
+    <t>Access to Web Browser</t>
+  </si>
+  <si>
+    <t>Being in the sign in page</t>
   </si>
 </sst>
 </file>
@@ -504,6 +510,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1022,6 +1029,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,7 +1117,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
@@ -1430,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,10 +1468,10 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1476,10 +1483,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -1491,10 +1498,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -1557,52 +1564,56 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1610,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,231 +1711,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
+      <c r="E31" s="43"/>
+      <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="G31" s="12" t="s">
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -1936,10 +1947,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -1951,10 +1962,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -1965,74 +1976,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2098,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,15 +2136,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2145,10 +2156,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2161,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2188,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2228,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,37 +2253,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2296,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2304,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2312,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2342,7 +2357,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2362,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2370,231 +2385,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2606,10 +2621,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2621,10 +2636,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2635,74 +2650,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -2768,7 +2783,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,15 +2809,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2814,10 +2829,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2829,11 +2844,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>114</v>
+      <c r="D3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2857,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2897,13 +2912,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2911,37 +2926,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2949,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2957,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2965,7 +2984,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2973,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2981,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2991,7 +3010,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3011,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3050,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,231 +3058,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3275,10 +3294,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3290,10 +3309,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3304,74 +3323,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -3438,7 +3457,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,15 +3483,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -3484,10 +3503,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -3499,11 +3518,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>123</v>
+      <c r="D3" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3567,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,37 +3600,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,7 +3642,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3635,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3643,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,7 +3674,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3661,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,7 +3724,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3709,231 +3732,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3945,10 +3968,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3960,10 +3983,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3974,74 +3997,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -4107,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,15 +4157,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4154,10 +4177,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4169,11 +4192,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>123</v>
+      <c r="D3" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4197,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4237,13 +4260,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,37 +4274,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4289,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,7 +4324,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,7 +4348,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4331,7 +4358,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4341,7 +4368,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4351,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4361,7 +4388,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4371,7 +4398,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4379,231 +4406,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -4615,10 +4642,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -4630,10 +4657,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -4644,74 +4671,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -4778,7 +4805,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,15 +4831,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4824,10 +4851,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4839,10 +4866,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="50" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -4867,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4907,13 +4934,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4921,37 +4948,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4959,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4967,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4975,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,7 +5042,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5021,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5041,7 +5072,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5049,231 +5080,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5285,10 +5316,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5300,10 +5331,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5314,74 +5345,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -5448,7 +5479,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,15 +5505,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5494,10 +5525,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5509,10 +5540,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -5535,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5575,13 +5606,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5589,37 +5620,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5627,7 +5662,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5635,7 +5670,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5643,7 +5678,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,7 +5686,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5659,7 +5694,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,7 +5704,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5699,7 +5734,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5744,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5717,231 +5752,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5953,10 +5988,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5968,10 +6003,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5982,74 +6017,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -6115,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6142,15 +6177,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -6162,10 +6197,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6177,10 +6212,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -6203,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6243,13 +6278,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6257,37 +6292,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6295,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6303,7 +6342,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6311,7 +6350,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6319,7 +6358,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6327,7 +6366,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6376,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,7 +6386,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6357,7 +6396,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,7 +6406,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6377,7 +6416,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6385,231 +6424,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6621,10 +6660,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6636,10 +6675,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6650,74 +6689,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -6784,7 +6823,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,15 +6849,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -6830,10 +6869,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6845,11 +6884,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>87</v>
+      <c r="D3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6913,13 +6952,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6927,37 +6966,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6965,7 +7008,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,7 +7016,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6981,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6989,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6997,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,7 +7050,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7017,7 +7060,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7027,7 +7070,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7037,7 +7080,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7047,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7055,231 +7098,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7291,10 +7334,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7306,10 +7349,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7320,74 +7363,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -7454,7 +7497,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7480,15 +7523,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -7500,10 +7543,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7515,11 +7558,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>87</v>
+      <c r="D3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7543,7 +7586,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7583,13 +7626,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7597,37 +7640,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7643,7 +7690,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7698,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7659,7 +7706,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7667,7 +7714,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7677,7 +7724,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7687,7 +7734,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7697,7 +7744,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7707,7 +7754,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7717,7 +7764,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7725,231 +7772,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7961,10 +8008,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7976,10 +8023,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7990,74 +8037,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -8123,8 +8170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8150,15 +8197,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -8170,10 +8217,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8185,10 +8232,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="49"/>
+      <c r="D3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -8211,7 +8258,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8251,13 +8298,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8265,37 +8312,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8303,7 +8354,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8311,7 +8362,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8319,7 +8370,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8327,7 +8378,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8335,7 +8386,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8345,7 +8396,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8355,7 +8406,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8365,7 +8416,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8375,7 +8426,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8385,7 +8436,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8393,231 +8444,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8629,10 +8680,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8644,10 +8695,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8658,74 +8709,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -8791,8 +8842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,15 +8869,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -8838,10 +8889,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -8853,11 +8904,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>114</v>
+      <c r="D3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8881,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8921,13 +8972,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8935,37 +8986,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8973,7 +9028,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8981,7 +9036,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8989,7 +9044,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,7 +9052,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9005,7 +9060,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9015,7 +9070,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9025,7 +9080,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9035,7 +9090,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9045,7 +9100,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9055,7 +9110,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9063,231 +9118,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9299,10 +9354,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9314,10 +9369,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9328,74 +9383,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -9461,8 +9516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9488,15 +9543,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -9508,10 +9563,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -9523,11 +9578,11 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>114</v>
+      <c r="D3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9551,7 +9606,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9591,13 +9646,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9605,37 +9660,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="13">
         <v>4</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9643,7 +9702,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9651,7 +9710,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9659,7 +9718,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9667,7 +9726,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9675,7 +9734,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9685,7 +9744,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9695,7 +9754,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9705,7 +9764,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9715,7 +9774,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9725,7 +9784,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9733,231 +9792,231 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="A24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="46" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="47"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="50" t="s">
+      <c r="E28" s="52"/>
+      <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9969,10 +10028,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9984,10 +10043,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9998,74 +10057,74 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -10128,15 +10187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
@@ -10147,7 +10197,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BBB18BE6CF2BFB42B2DD5EE6596F374E" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3448be9ebe5d4dfd630dcc77c4ed8351">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="481c49dc-88bf-4d92-ac17-5a66c591758d" xmlns:ns3="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d70c4c6277d610cf875ec25ab292aa2f" ns2:_="" ns3:_="">
     <xsd:import namespace="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
@@ -10330,15 +10380,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10349,7 +10400,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D85B51-21B4-4136-A0E6-DD045BFBFF4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10366,4 +10417,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B428D80-FB7F-4632-8B07-B4E54B99626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9968F-60B6-4587-8F07-C8CEF24BCF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>Being in the sign in page</t>
+  </si>
+  <si>
+    <t>Tester: Facundo Milher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: </t>
+  </si>
+  <si>
+    <t>as expected</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>DF-001: Se registra aunque el campo del mail este vacio.</t>
   </si>
 </sst>
 </file>
@@ -1030,6 +1045,48 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,48 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1437,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView topLeftCell="H22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,10 +1483,10 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1483,10 +1498,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -1498,10 +1513,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -1711,33 +1726,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -1753,53 +1768,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="G27" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -1829,113 +1844,83 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -1947,10 +1932,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -1962,10 +1947,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -1976,77 +1961,109 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="51">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B28:C28"/>
@@ -2062,43 +2079,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2144,7 +2124,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2159,7 +2139,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2385,33 +2365,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -2427,53 +2407,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -2503,14 +2483,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -2538,14 +2518,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -2573,14 +2553,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -2606,10 +2586,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2621,10 +2601,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2636,10 +2616,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2650,119 +2630,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -2772,6 +2710,48 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2817,7 +2797,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2832,7 +2812,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2847,7 +2827,7 @@
       <c r="D3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="1"/>
@@ -3058,33 +3038,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3100,53 +3080,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -3176,14 +3156,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3211,14 +3191,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -3246,14 +3226,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -3279,10 +3259,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3294,10 +3274,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3309,10 +3289,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3323,119 +3303,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3446,6 +3384,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3491,7 +3471,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -3506,7 +3486,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -3521,7 +3501,7 @@
       <c r="D3" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="34" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="1"/>
@@ -3732,7 +3712,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -3744,21 +3724,21 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3774,53 +3754,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -3850,14 +3830,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3885,14 +3865,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -3920,14 +3900,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -3953,10 +3933,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3968,10 +3948,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3983,10 +3963,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3997,119 +3977,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4120,6 +4058,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4130,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,7 +4145,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4180,7 +4160,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4195,7 +4175,7 @@
       <c r="D3" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="34" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="1"/>
@@ -4406,33 +4386,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -4448,53 +4428,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -4524,14 +4504,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -4559,14 +4539,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -4594,14 +4574,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -4627,10 +4607,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -4642,10 +4622,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -4657,10 +4637,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -4671,119 +4651,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4794,6 +4732,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4839,7 +4819,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4854,7 +4834,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4869,7 +4849,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -5080,33 +5060,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5122,53 +5102,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -5198,14 +5178,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -5233,14 +5213,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -5268,14 +5248,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -5301,10 +5281,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5316,10 +5296,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5331,10 +5311,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5345,119 +5325,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5468,6 +5406,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5513,7 +5493,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5528,7 +5508,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5543,7 +5523,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -5752,33 +5732,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5794,53 +5774,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -5870,14 +5850,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -5905,14 +5885,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -5940,14 +5920,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -5973,10 +5953,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5988,10 +5968,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6003,10 +5983,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6017,119 +5997,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6140,6 +6078,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6150,7 +6130,1288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="F21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="13">
+        <v>7</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="13">
+        <v>8</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="13">
+        <v>9</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="13">
+        <v>10</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="13">
+        <v>11</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="13">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="13">
+        <v>13</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="13">
+        <v>14</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="G28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>1</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="G29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>2</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="G30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>3</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="G31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+    </row>
+    <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+    </row>
+    <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+    </row>
+    <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+    </row>
+    <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:W41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="13">
+        <v>7</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="13">
+        <v>8</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="13">
+        <v>9</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="13">
+        <v>10</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="13">
+        <v>11</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="13">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="13">
+        <v>13</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="13">
+        <v>14</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="G28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>1</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="G29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>2</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="G30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>3</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="G31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+    </row>
+    <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+    </row>
+    <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+    </row>
+    <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+    </row>
+    <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:W41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
@@ -6177,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>2</v>
@@ -6185,7 +7446,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -6200,7 +7461,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6213,9 +7474,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="50"/>
+        <v>86</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>86</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -6284,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6298,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6312,7 +7575,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,8 +7588,8 @@
       <c r="D11" s="13">
         <v>4</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>78</v>
+      <c r="E11" s="26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6334,7 +7597,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6342,7 +7605,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6350,7 +7613,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6366,7 +7629,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,7 +7639,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6386,7 +7649,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,7 +7679,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,33 +7687,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -6466,53 +7729,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -6542,14 +7805,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -6577,14 +7840,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="B30" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -6612,14 +7875,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -6645,10 +7908,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6660,10 +7923,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6675,10 +7938,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6689,119 +7952,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6812,628 +8033,40 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="50"/>
-    </row>
-    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="13">
-        <v>7</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="13">
-        <v>8</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="13">
-        <v>9</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="13">
-        <v>10</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="13">
-        <v>11</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="13">
-        <v>12</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="13">
-        <v>13</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="13">
-        <v>14</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-    </row>
-    <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="44"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="48"/>
-    </row>
-    <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="G28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>1</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="G29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>2</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="G30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>3</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="G31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="N36" s="45"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-    </row>
-    <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-    </row>
-    <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-    </row>
-    <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-    </row>
-    <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
@@ -7442,724 +8075,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:W41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="50"/>
-    </row>
-    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="13">
-        <v>7</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="13">
-        <v>8</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="13">
-        <v>9</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="13">
-        <v>10</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="13">
-        <v>11</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="13">
-        <v>12</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="13">
-        <v>13</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="13">
-        <v>14</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-    </row>
-    <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="44"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="48"/>
-    </row>
-    <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="G28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>1</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="G29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>2</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="G30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>3</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="G31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="N36" s="45"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-    </row>
-    <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-    </row>
-    <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-    </row>
-    <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-    </row>
-    <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8205,7 +8120,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -8220,7 +8135,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8235,7 +8150,7 @@
       <c r="D3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -8444,7 +8359,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -8456,21 +8371,21 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -8486,53 +8401,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -8562,14 +8477,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -8597,14 +8512,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -8632,14 +8547,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -8665,10 +8580,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8680,10 +8595,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8695,10 +8610,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8709,119 +8624,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8832,6 +8705,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8877,7 +8792,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -8892,7 +8807,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -8907,7 +8822,7 @@
       <c r="D3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="1"/>
@@ -9118,33 +9033,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9160,53 +9075,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -9236,14 +9151,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -9271,14 +9186,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -9306,14 +9221,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -9339,10 +9254,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9354,10 +9269,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9369,10 +9284,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9383,119 +9298,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -9506,6 +9379,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9551,7 +9466,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -9566,7 +9481,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -9581,7 +9496,7 @@
       <c r="D3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="1"/>
@@ -9792,33 +9707,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="G25" s="46" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="G25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9834,53 +9749,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="L27" s="43"/>
+      <c r="M27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="36"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -9910,14 +9825,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -9945,14 +9860,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="40"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -9980,14 +9895,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="40"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -10013,10 +9928,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -10028,10 +9943,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -10043,10 +9958,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -10057,119 +9972,77 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="45"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -10180,6 +10053,48 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10187,14 +10102,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10381,21 +10294,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
-    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10420,9 +10332,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
+    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9968F-60B6-4587-8F07-C8CEF24BCF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC76F1B8-C386-4581-B1FA-F1A42BF7571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1045,48 +1045,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,6 +1068,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="H22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:N31"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,10 +1483,10 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1498,10 +1498,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -1513,10 +1513,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -1726,33 +1726,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -1768,53 +1768,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -1844,14 +1844,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>150</v>
       </c>
@@ -1869,14 +1869,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>150</v>
       </c>
@@ -1894,14 +1894,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>150</v>
       </c>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -1961,73 +1961,108 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="K40:L40"/>
@@ -2043,42 +2078,7 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="G25:N25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2124,7 +2124,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2139,7 +2139,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2365,33 +2365,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -2407,53 +2407,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -2483,14 +2483,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -2518,14 +2518,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -2553,14 +2553,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2630,77 +2630,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -2710,48 +2752,6 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2797,7 +2797,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2812,7 +2812,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2827,7 +2827,7 @@
       <c r="D3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="1"/>
@@ -3038,33 +3038,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3080,53 +3080,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -3156,14 +3156,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3191,14 +3191,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -3226,14 +3226,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3303,77 +3303,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3384,48 +3426,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3471,7 +3471,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -3486,7 +3486,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -3501,7 +3501,7 @@
       <c r="D3" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="1"/>
@@ -3712,7 +3712,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -3724,21 +3724,21 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3754,53 +3754,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -3830,14 +3830,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -3865,14 +3865,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -3900,14 +3900,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3977,77 +3977,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4058,48 +4100,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4145,7 +4145,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4160,7 +4160,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4175,7 +4175,7 @@
       <c r="D3" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="1"/>
@@ -4386,33 +4386,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -4428,53 +4428,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -4504,14 +4504,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -4539,14 +4539,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -4574,14 +4574,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -4651,77 +4651,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4732,48 +4774,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4784,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,7 +4819,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4834,7 +4834,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4849,7 +4849,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -5060,33 +5060,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5102,53 +5102,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="G27" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -5178,113 +5178,83 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5296,10 +5266,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5311,10 +5281,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5325,77 +5295,114 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5406,48 +5413,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5458,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,7 +5458,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5508,7 +5473,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5523,7 +5488,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -5732,33 +5697,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5774,53 +5739,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="G27" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -5850,113 +5815,83 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>54</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5968,10 +5903,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5983,10 +5918,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5997,77 +5932,114 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6078,48 +6050,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6130,8 +6060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="F21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:N32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6165,7 +6095,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -6180,7 +6110,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6195,7 +6125,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -6404,33 +6334,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -6446,53 +6376,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -6522,14 +6452,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>150</v>
       </c>
@@ -6547,14 +6477,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>150</v>
       </c>
@@ -6572,14 +6502,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>150</v>
       </c>
@@ -6595,10 +6525,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6610,10 +6540,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6625,10 +6555,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6639,75 +6569,116 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6718,47 +6689,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6769,7 +6699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6804,7 +6734,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -6819,7 +6749,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6834,7 +6764,7 @@
       <c r="D3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="1"/>
@@ -7045,33 +6975,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -7087,53 +7017,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -7163,14 +7093,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>150</v>
       </c>
@@ -7188,14 +7118,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>150</v>
       </c>
@@ -7213,14 +7143,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>150</v>
       </c>
@@ -7236,10 +7166,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7251,10 +7181,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7266,10 +7196,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7280,75 +7210,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -7359,48 +7331,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7446,7 +7376,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -7461,7 +7391,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7476,7 +7406,7 @@
       <c r="D3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="1"/>
@@ -7687,33 +7617,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -7729,53 +7659,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -7805,14 +7735,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -7840,14 +7770,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -7875,14 +7805,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -7908,10 +7838,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7923,10 +7853,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7938,10 +7868,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7952,77 +7882,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8033,48 +8005,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8120,7 +8050,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -8135,7 +8065,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8150,7 +8080,7 @@
       <c r="D3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -8359,7 +8289,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -8371,21 +8301,21 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -8401,53 +8331,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -8477,14 +8407,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -8512,14 +8442,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -8547,14 +8477,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -8580,10 +8510,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8595,10 +8525,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8610,10 +8540,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8624,77 +8554,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8705,48 +8677,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8792,7 +8722,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -8807,7 +8737,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -8822,7 +8752,7 @@
       <c r="D3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="1"/>
@@ -9033,33 +8963,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9075,53 +9005,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -9151,14 +9081,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -9186,14 +9116,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -9221,14 +9151,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -9254,10 +9184,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9269,10 +9199,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9284,10 +9214,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9298,77 +9228,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -9379,48 +9351,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9466,7 +9396,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -9481,7 +9411,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -9496,7 +9426,7 @@
       <c r="D3" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="1"/>
@@ -9707,33 +9637,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="41" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9749,53 +9679,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="44"/>
+      <c r="M26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="42" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="43"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>49</v>
       </c>
@@ -9825,14 +9755,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
@@ -9860,14 +9790,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>53</v>
       </c>
@@ -9895,14 +9825,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>53</v>
       </c>
@@ -9928,10 +9858,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9943,10 +9873,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9958,10 +9888,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9972,77 +9902,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46" t="s">
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44" t="s">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -10053,48 +10025,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10102,12 +10032,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10294,20 +10226,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
+    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10332,12 +10265,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
-    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TPO - TC- PE16.xlsx
+++ b/TPO - TC- PE16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\TestingAplicaciones-SFW-TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E4D8E-A60B-4845-8A7F-F9302E62475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8297793-1128-4214-858F-5120177E2037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -1033,45 +1033,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,8 +1057,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1471,10 +1471,10 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -1486,10 +1486,10 @@
       <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -1501,10 +1501,10 @@
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -1714,33 +1714,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -1756,53 +1756,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -1832,14 +1832,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>144</v>
       </c>
@@ -1857,14 +1857,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>144</v>
       </c>
@@ -1882,14 +1882,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>144</v>
       </c>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -1949,73 +1949,108 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M27:N27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="K40:L40"/>
@@ -2032,41 +2067,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="G25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2112,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2127,7 +2127,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2353,33 +2353,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -2395,53 +2395,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -2471,14 +2471,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>144</v>
       </c>
@@ -2496,14 +2496,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>144</v>
       </c>
@@ -2521,14 +2521,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>144</v>
       </c>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2559,10 +2559,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2588,77 +2588,119 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -2668,48 +2710,6 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2755,7 +2755,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2770,7 +2770,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -2785,7 +2785,7 @@
       <c r="D3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="1"/>
@@ -2996,33 +2996,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3038,53 +3038,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -3114,14 +3114,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -3135,14 +3135,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -3156,14 +3156,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3219,75 +3219,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3298,48 +3340,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3385,7 +3385,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -3400,7 +3400,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -3415,7 +3415,7 @@
       <c r="D3" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="1"/>
@@ -3626,7 +3626,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -3638,21 +3638,21 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -3668,53 +3668,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -3744,14 +3744,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -3765,14 +3765,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -3786,14 +3786,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -3849,75 +3849,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -3928,48 +3970,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4015,7 +4015,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4030,7 +4030,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4045,7 +4045,7 @@
       <c r="D3" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="1"/>
@@ -4256,33 +4256,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -4298,53 +4298,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -4374,14 +4374,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -4395,14 +4395,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -4416,14 +4416,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -4450,10 +4450,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -4479,75 +4479,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -4558,48 +4600,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4645,7 +4645,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4660,7 +4660,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4675,7 +4675,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -4886,33 +4886,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -4928,53 +4928,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -5004,14 +5004,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -5025,14 +5025,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -5046,14 +5046,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5080,10 +5080,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5109,73 +5109,114 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5186,47 +5227,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5272,7 +5272,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5287,7 +5287,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5302,7 +5302,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -5511,33 +5511,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -5553,53 +5553,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -5629,14 +5629,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -5650,14 +5650,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -5671,14 +5671,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -5734,73 +5734,114 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -5811,47 +5852,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5863,7 +5863,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5897,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5912,7 +5912,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5927,7 +5927,7 @@
       <c r="D3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -6136,33 +6136,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="42" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -6178,53 +6178,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -6254,14 +6254,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>144</v>
       </c>
@@ -6279,14 +6279,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>144</v>
       </c>
@@ -6304,14 +6304,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>144</v>
       </c>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6342,10 +6342,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6357,10 +6357,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -6371,75 +6371,116 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="H37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -6450,47 +6491,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6536,7 +6536,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -6551,7 +6551,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -6566,7 +6566,7 @@
       <c r="D3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1"/>
@@ -6777,33 +6777,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -6819,53 +6819,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -6895,14 +6895,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12" t="s">
         <v>144</v>
       </c>
@@ -6920,14 +6920,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12" t="s">
         <v>144</v>
       </c>
@@ -6945,14 +6945,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>144</v>
       </c>
@@ -6968,10 +6968,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -6983,10 +6983,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -6998,10 +6998,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7012,75 +7012,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -7091,48 +7133,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7143,7 +7143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -7178,7 +7178,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -7193,7 +7193,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -7208,7 +7208,7 @@
       <c r="D3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1"/>
@@ -7419,33 +7419,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -7461,53 +7461,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -7537,14 +7537,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -7558,14 +7558,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -7579,14 +7579,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -7613,10 +7613,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -7628,10 +7628,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -7642,75 +7642,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -7721,48 +7763,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7773,7 +7773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -7808,7 +7808,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7823,7 +7823,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -7838,7 +7838,7 @@
       <c r="D3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
@@ -8047,7 +8047,7 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="56" t="s">
@@ -8059,21 +8059,21 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="61"/>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -8089,53 +8089,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -8165,14 +8165,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -8186,14 +8186,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -8207,14 +8207,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -8226,10 +8226,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8256,10 +8256,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8270,75 +8270,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8349,48 +8391,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8401,7 +8401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -8436,7 +8436,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -8451,7 +8451,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -8466,7 +8466,7 @@
       <c r="D3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="1"/>
@@ -8677,33 +8677,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -8719,53 +8719,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -8795,14 +8795,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -8816,14 +8816,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -8837,14 +8837,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -8856,10 +8856,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -8871,10 +8871,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -8886,10 +8886,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -8900,75 +8900,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -8979,48 +9021,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9066,7 +9066,7 @@
       <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -9081,7 +9081,7 @@
       <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -9096,7 +9096,7 @@
       <c r="D3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="50" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="1"/>
@@ -9307,33 +9307,33 @@
       <c r="B22" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="54" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="G25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -9349,53 +9349,53 @@
       <c r="E26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37" t="s">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="48"/>
     </row>
     <row r="28" spans="1:14" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="52"/>
       <c r="G28" s="10" t="s">
         <v>47</v>
       </c>
@@ -9425,14 +9425,14 @@
       <c r="A29" s="14">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="43"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
@@ -9446,14 +9446,14 @@
       <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="43"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
@@ -9467,14 +9467,14 @@
       <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="43"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -9486,10 +9486,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -9501,10 +9501,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -9516,10 +9516,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -9530,75 +9530,117 @@
       <c r="N34" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38" t="s">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="38"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:E25"/>
@@ -9609,48 +9651,6 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9667,6 +9667,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BBB18BE6CF2BFB42B2DD5EE6596F374E" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3448be9ebe5d4dfd630dcc77c4ed8351">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="481c49dc-88bf-4d92-ac17-5a66c591758d" xmlns:ns3="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d70c4c6277d610cf875ec25ab292aa2f" ns2:_="" ns3:_="">
     <xsd:import namespace="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
@@ -9849,17 +9860,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="481c49dc-88bf-4d92-ac17-5a66c591758d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
@@ -9869,6 +9869,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
+    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D85B51-21B4-4136-A0E6-DD045BFBFF4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9885,15 +9896,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d6e5d7e7-c92c-4452-ba3b-40b1e8f48583"/>
-    <ds:schemaRef ds:uri="481c49dc-88bf-4d92-ac17-5a66c591758d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>